--- a/2,3/空き家　統計まとめ　表グラフ.xlsx
+++ b/2,3/空き家　統計まとめ　表グラフ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s12810162/Documents/学校/社会レポート/2,3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s12810162/Documents/学校/Social-report-git/2,3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687FCAF-215C-7948-A84A-EB8E850B400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4179769A-4979-0947-82ED-0B081CA20221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="500" windowWidth="27480" windowHeight="20500" activeTab="1" xr2:uid="{B6888B2F-B713-794B-8621-8DD3C6E73ADB}"/>
+    <workbookView xWindow="6120" yWindow="500" windowWidth="27480" windowHeight="20500" activeTab="4" xr2:uid="{B6888B2F-B713-794B-8621-8DD3C6E73ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="空き家にしておく理由" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_);\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -591,6 +591,15 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1104,12 +1113,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,8 +1278,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6762,9 +6778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6802,7 +6818,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6908,7 +6924,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7050,7 +7066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7259,7 +7275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5083FF-849E-9F49-8C45-561712FAE1C9}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="125" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -7899,7 +7915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D91816-D149-D147-AAAE-A1B59AFFCEC0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -7967,8 +7983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF331F87-C171-0747-9F99-07AABDCC72E8}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8120,7 +8136,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8129,6 +8145,9 @@
     <mergeCell ref="C4:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{D880369D-A2F1-FA4E-9657-AF29BCA1085C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2,3/空き家　統計まとめ　表グラフ.xlsx
+++ b/2,3/空き家　統計まとめ　表グラフ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s12810162/Documents/学校/Social-report-git/2,3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4179769A-4979-0947-82ED-0B081CA20221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F9FA9-49FB-F748-9275-77A7F3F8A05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="500" windowWidth="27480" windowHeight="20500" activeTab="4" xr2:uid="{B6888B2F-B713-794B-8621-8DD3C6E73ADB}"/>
+    <workbookView xWindow="6120" yWindow="500" windowWidth="27480" windowHeight="20500" activeTab="1" xr2:uid="{B6888B2F-B713-794B-8621-8DD3C6E73ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="空き家にしておく理由" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="生産緑地を借りる意向 都内のみ" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">住宅スタックの現状!$F$30:$J$30</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">住宅スタックの現状!$F$31:$J$31</definedName>
+  </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>解体費用をかけたくない</t>
   </si>
@@ -1272,14 +1276,14 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,6 +1724,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>住宅スタックの現状</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1752,390 +1782,117 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>空き家など</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$F$12:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>正しい</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>あ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>い</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>か</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>住宅スタックの現状!$G$12:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>920</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$H$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>昭和55年以前建築</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B612-6948-80BF-2C7C7FA055ED}"/>
               </c:ext>
             </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$F$12:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>正しい</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>あ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>い</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>か</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>住宅スタックの現状!$H$12:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>バリアフリー省エネをいずれも満たさない</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2779615715915586E-3"/>
-                  <c:y val="2.3277718286664321E-3"/>
+                  <c:x val="-0.13569363324064962"/>
+                  <c:y val="4.4980450579925883E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.30025361783238547"/>
-                      <c:h val="5.269991314743816E-2"/>
+                      <c:w val="0.23640322657651411"/>
+                      <c:h val="0.1098968534238134"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
+                  <c16:uniqueId val="{00000001-B612-6948-80BF-2C7C7FA055ED}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2168,536 +1925,95 @@
                 <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>住宅スタックの現状!$F$12:$F$18</c:f>
+              <c:f>住宅スタックの現状!$F$30:$J$30</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>正しい</c:v>
+                  <c:v>空き家など</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>あ</c:v>
+                  <c:v>昭和55年以前建築</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>い</c:v>
+                  <c:v>バリアフリー省エネをいずれも満たさない</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>う</c:v>
+                  <c:v>上記のうちどちらかを満たす</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>か</c:v>
+                  <c:v>上記のうちいずれも満たす</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>住宅スタックの現状!$I$12:$I$18</c:f>
+              <c:f>住宅スタックの現状!$F$31:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2200</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>920</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$J$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>上記のうちどちらかを満たす</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$F$12:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>正しい</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>あ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>い</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>か</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>住宅スタックの現状!$J$12:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>上記のうちいずれも満たす</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2260067459082561E-3"/>
-                  <c:y val="0.12261760931005525"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>住宅スタックの現状!$F$12:$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>正しい</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>あ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>い</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>う</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>え</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>お</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>か</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>住宅スタックの現状!$K$12:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FCEF-EC43-A6B7-7155FF5F1EC6}"/>
+              <c16:uniqueId val="{00000000-B612-6948-80BF-2C7C7FA055ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="510876016"/>
-        <c:axId val="510878016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="510876016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="510878016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="510878016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="510876016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2708,13 +2024,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5069,7 +4378,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5126,7 +4435,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5177,6 +4486,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5187,12 +4503,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5230,7 +4553,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6658,23 +5981,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1801584</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>801414</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28424</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248161</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D76087-E18D-0D06-0C88-36FFED5977B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0880987F-DE16-6D4A-691B-93FBDF276D7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7076,8 +6399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB25D360-CB95-5F43-85EA-2A2F0B9B225C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7088,7 +6411,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -7099,7 +6422,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7110,7 +6433,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="21">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -7121,7 +6444,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7132,7 +6455,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -7141,7 +6464,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -7150,7 +6473,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -7159,7 +6482,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -7168,7 +6491,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7177,7 +6500,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="21">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7188,7 +6511,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -7197,7 +6520,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -7206,7 +6529,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="21">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -7215,7 +6538,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="21">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -7224,7 +6547,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -7233,7 +6556,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -7242,7 +6565,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
@@ -7251,7 +6574,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -7275,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5083FF-849E-9F49-8C45-561712FAE1C9}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="125" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7286,10 +6609,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
@@ -7300,8 +6623,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" t="s">
         <v>23</v>
       </c>
@@ -7310,8 +6633,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" t="s">
         <v>24</v>
       </c>
@@ -7320,8 +6643,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" t="s">
         <v>25</v>
       </c>
@@ -7379,7 +6702,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -7412,7 +6735,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -7443,7 +6766,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -7474,7 +6797,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -7505,7 +6828,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
@@ -7536,7 +6859,7 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -7565,7 +6888,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
@@ -7597,7 +6920,7 @@
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -7606,7 +6929,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -7615,7 +6938,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="21" thickBot="1">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
@@ -7632,6 +6955,40 @@
       </c>
       <c r="D22" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="F31" s="8">
+        <v>850</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2200</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1300</v>
+      </c>
+      <c r="J31" s="10">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -7983,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF331F87-C171-0747-9F99-07AABDCC72E8}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8046,7 +7403,7 @@
       <c r="B4" s="17">
         <v>0.14858499999999999</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="52">
         <v>0.48399700000000001</v>
       </c>
       <c r="D4" s="45">
@@ -8071,7 +7428,7 @@
       <c r="B5" s="17">
         <v>9.5348000000000002E-2</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="45">
         <f>B10*B5</f>
         <v>11985243.6</v>
@@ -8090,7 +7447,7 @@
       <c r="B6" s="17">
         <v>7.8892000000000004E-2</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="45">
         <f>B10*B6</f>
         <v>9916724.4000000004</v>
@@ -8104,7 +7461,7 @@
       <c r="B7" s="17">
         <v>0.16117200000000001</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="45">
         <f>B10*B7</f>
         <v>20259320.400000002</v>
@@ -8136,7 +7493,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="50" t="s">
         <v>72</v>
       </c>
     </row>

--- a/2,3/空き家　統計まとめ　表グラフ.xlsx
+++ b/2,3/空き家　統計まとめ　表グラフ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s12810162/Documents/学校/Social-report-git/2,3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9F9FA9-49FB-F748-9275-77A7F3F8A05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95353060-D3D8-2E4B-B56E-69009B75DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="500" windowWidth="27480" windowHeight="20500" activeTab="1" xr2:uid="{B6888B2F-B713-794B-8621-8DD3C6E73ADB}"/>
+    <workbookView xWindow="12580" yWindow="500" windowWidth="21020" windowHeight="20500" activeTab="5" xr2:uid="{B6888B2F-B713-794B-8621-8DD3C6E73ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="空き家にしておく理由" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,8 @@
     <sheet name="特定空き家などに対する措置状況" sheetId="4" r:id="rId3"/>
     <sheet name="生産緑地を借りる意向 都内のみ" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">住宅スタックの現状!$F$30:$J$30</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">住宅スタックの現状!$F$31:$J$31</definedName>
-  </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>解体費用をかけたくない</t>
   </si>
@@ -539,6 +536,88 @@
   </si>
   <si>
     <t>「あ　い　う　え　お　か」はいらない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品ロス</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>523万t</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">マン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3163万t</t>
+    <rPh sb="4" eb="5">
+      <t>マn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>764.6万t</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">マン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品輸入</t>
+    <rPh sb="0" eb="4">
+      <t>ショクヒn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国内生産</t>
+    <rPh sb="0" eb="4">
+      <t>コクナイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12兆3502億円</t>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7兆388億円</t>
+    <rPh sb="1" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マンエn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品自給率</t>
+    <rPh sb="0" eb="5">
+      <t>ショクヒンズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>億円</t>
+    <rPh sb="0" eb="2">
+      <t>オクエn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1801,6 +1880,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A97B-1042-A975-C1FEF968F2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1816,6 +1900,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A97B-1042-A975-C1FEF968F2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1831,6 +1920,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A97B-1042-A975-C1FEF968F2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1846,6 +1940,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A97B-1042-A975-C1FEF968F2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6598,7 +6697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5083FF-849E-9F49-8C45-561712FAE1C9}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -7507,4 +7606,108 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA4027-CF10-7C41-8F76-4B8F6ED721E2}">
+  <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.63696942000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10">
+        <v>70388</v>
+      </c>
+      <c r="D10">
+        <v>123502</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13">
+        <v>92405</v>
+      </c>
+      <c r="D13">
+        <v>47920</v>
+      </c>
+      <c r="E13">
+        <f>(D13/D15)</f>
+        <v>0.34149296276500979</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="D15">
+        <f>(C13+D13)</f>
+        <v>140325</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>